--- a/InputData/elec/DRC/Demand Response Capacity.xlsx
+++ b/InputData/elec/DRC/Demand Response Capacity.xlsx
@@ -16798,8 +16798,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -16823,6 +16823,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -16909,6 +16911,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -17065,12 +17079,15 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </l787e5950a9249679d0130235a9a791b>
     <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F48EC5A8-ED3B-4EA2-9460-7589B798D3D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{933F376F-F5BB-413D-A6D0-698AD01BD2E7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
